--- a/Results/Calculation/lda-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-elmo_ori-money.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>142</v>
@@ -441,19 +441,19 @@
         <v>169</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.41</v>
+        <v>0.4172413793103448</v>
       </c>
       <c r="G2">
-        <v>0.77</v>
+        <v>0.8013245033112583</v>
       </c>
       <c r="H2">
-        <v>0.54</v>
+        <v>0.5487528344671202</v>
       </c>
       <c r="I2">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0.6899999999999999</v>
+        <v>0.6769759450171822</v>
       </c>
       <c r="G3">
-        <v>0.85</v>
+        <v>0.9078341013824884</v>
       </c>
       <c r="H3">
-        <v>0.76</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="I3">
         <v>0.75</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>280</v>
@@ -499,19 +499,19 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>0.79</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="G4">
-        <v>0.6899999999999999</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="H4">
-        <v>0.74</v>
+        <v>0.778523489932886</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>0.66</v>
+        <v>0.6604938271604939</v>
       </c>
       <c r="G5">
-        <v>0.84</v>
+        <v>0.823076923076923</v>
       </c>
       <c r="H5">
-        <v>0.74</v>
+        <v>0.7328767123287671</v>
       </c>
       <c r="I5">
         <v>0.83</v>

--- a/Results/Calculation/lda-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-elmo_ori-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>0.4172413793103448</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="G2">
-        <v>0.8013245033112583</v>
+        <v>0.7284768211920529</v>
       </c>
       <c r="H2">
-        <v>0.5487528344671202</v>
+        <v>0.6567164179104477</v>
       </c>
       <c r="I2">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0.6769759450171822</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="G3">
-        <v>0.9078341013824884</v>
+        <v>0.9585253456221198</v>
       </c>
       <c r="H3">
-        <v>0.7755905511811023</v>
+        <v>0.763302752293578</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.8055555555555556</v>
+        <v>0.8507462686567164</v>
       </c>
       <c r="G4">
-        <v>0.7532467532467533</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="H4">
-        <v>0.778523489932886</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>0.6604938271604939</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G5">
-        <v>0.823076923076923</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="H5">
-        <v>0.7328767123287671</v>
+        <v>0.7685589519650655</v>
       </c>
       <c r="I5">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
